--- a/Fox財報資料_2024_Q4.xlsx
+++ b/Fox財報資料_2024_Q4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Desktop\financial_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFBB16B-35E1-4FA5-815B-DBEFFED14220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E62B21-131E-4144-B59D-3C801141F7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="12900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="合併資產負債表" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="408">
   <si>
     <t>項目類別</t>
   </si>
@@ -169,1075 +169,1093 @@
     <t>稅前/稅後</t>
   </si>
   <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>銷貨收入</t>
+  </si>
+  <si>
+    <t>銷貨成本</t>
+  </si>
+  <si>
+    <t>毛利</t>
+  </si>
+  <si>
+    <t>營業費用：</t>
+  </si>
+  <si>
+    <t>一般及管理費用</t>
+  </si>
+  <si>
+    <t>已購無形資產攤銷</t>
+  </si>
+  <si>
+    <t>營業費用合計</t>
+  </si>
+  <si>
+    <t>營業收入</t>
+  </si>
+  <si>
+    <t>利息費用</t>
+  </si>
+  <si>
+    <t>減：非控制權益之淨損</t>
+  </si>
+  <si>
+    <t>January 3, 2025</t>
+  </si>
+  <si>
+    <t>For the fiscal years ended</t>
+  </si>
+  <si>
+    <t>December 29, 2023</t>
+  </si>
+  <si>
+    <t>December 30, 2022</t>
+  </si>
+  <si>
+    <t>營業活動</t>
+  </si>
+  <si>
+    <t>所得稅變動</t>
+  </si>
+  <si>
+    <t>投資活動</t>
+  </si>
+  <si>
+    <t>Net cash provided by operating activities</t>
+  </si>
+  <si>
+    <t>Net cash (used in) provided by financing activities</t>
+  </si>
+  <si>
+    <t>投資活動現金流出淨額</t>
+  </si>
+  <si>
+    <t>無形資產</t>
+  </si>
+  <si>
+    <t>商譽</t>
+  </si>
+  <si>
+    <t>股票基礎報酬費用</t>
+  </si>
+  <si>
+    <t>流動負債</t>
+  </si>
+  <si>
+    <t>總計</t>
+  </si>
+  <si>
+    <t>PART IV</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>FOX FACTORY HOLDING CORP.</t>
+  </si>
+  <si>
+    <t>流動資產</t>
+  </si>
+  <si>
+    <t>非流動資產</t>
+  </si>
+  <si>
+    <t>其他資產</t>
+  </si>
+  <si>
+    <t>非流動負債</t>
+  </si>
+  <si>
+    <t>應收帳款變動 (net of allowances of $1,848 and $1,158 at January 3, 2025 and December 29, 2023,</t>
+  </si>
+  <si>
+    <t>respectively)</t>
+  </si>
+  <si>
+    <t>Liabilities and stockholders’ equity</t>
+  </si>
+  <si>
+    <t>Commitments and contingent liabilities (Refer to Note 12. Commitments and Contingent Liabilities)</t>
+  </si>
+  <si>
+    <t>資產</t>
+  </si>
+  <si>
+    <t>流動資產：</t>
+  </si>
+  <si>
+    <t>現金及約當現金</t>
+  </si>
+  <si>
+    <t>存貨變動</t>
+  </si>
+  <si>
+    <t>預付費用及其他流動資產</t>
+  </si>
+  <si>
+    <t>流動資產合計</t>
+  </si>
+  <si>
+    <t>不動產、廠房及設備（淨額）</t>
+  </si>
+  <si>
+    <t>租賃使用權資產</t>
+  </si>
+  <si>
+    <t>遞延所得稅資產（淨額）</t>
+  </si>
+  <si>
+    <t>商標及品牌權（淨額）</t>
+  </si>
+  <si>
+    <t>客戶及經銷合作關係（淨額）</t>
+  </si>
+  <si>
+    <t>核心技術（淨額）</t>
+  </si>
+  <si>
+    <t>資產總額</t>
+  </si>
+  <si>
+    <t>流動負債：</t>
+  </si>
+  <si>
+    <t>應付帳款變動</t>
+  </si>
+  <si>
+    <t>應計費用</t>
+  </si>
+  <si>
+    <t>長期負債—一年內到期部分</t>
+  </si>
+  <si>
+    <t>流動負債合計</t>
+  </si>
+  <si>
+    <t>週轉信貸</t>
+  </si>
+  <si>
+    <t>分期貸款（扣除一年內到期部分）</t>
+  </si>
+  <si>
+    <t>其他負債</t>
+  </si>
+  <si>
+    <t>負債總額</t>
+  </si>
+  <si>
+    <t>非控制權益（少數股東權益）</t>
+  </si>
+  <si>
+    <t>股東權益</t>
+  </si>
+  <si>
+    <t>January 03, 2025</t>
+  </si>
+  <si>
+    <t>71,674</t>
+  </si>
+  <si>
+    <t>165,827</t>
+  </si>
+  <si>
+    <t>404,736</t>
+  </si>
+  <si>
+    <t>85,443</t>
+  </si>
+  <si>
+    <t>727,680</t>
+  </si>
+  <si>
+    <t>246,393</t>
+  </si>
+  <si>
+    <t>104,019</t>
+  </si>
+  <si>
+    <t>44,364</t>
+  </si>
+  <si>
+    <t>639,505</t>
+  </si>
+  <si>
+    <t>264,126</t>
+  </si>
+  <si>
+    <t>161,585</t>
+  </si>
+  <si>
+    <t>23,154</t>
+  </si>
+  <si>
+    <t>21,484</t>
+  </si>
+  <si>
+    <t>2,232,310</t>
+  </si>
+  <si>
+    <t>144,067</t>
+  </si>
+  <si>
+    <t>91,427</t>
+  </si>
+  <si>
+    <t>24,286</t>
+  </si>
+  <si>
+    <t>259,780</t>
+  </si>
+  <si>
+    <t>153,000</t>
+  </si>
+  <si>
+    <t>527,775</t>
+  </si>
+  <si>
+    <t>90,611</t>
+  </si>
+  <si>
+    <t>1,031,166</t>
+  </si>
+  <si>
+    <t>(38)</t>
+  </si>
+  <si>
+    <t>83,642</t>
+  </si>
+  <si>
+    <t>171,060</t>
+  </si>
+  <si>
+    <t>371,841</t>
+  </si>
+  <si>
+    <t>141,512</t>
+  </si>
+  <si>
+    <t>768,055</t>
+  </si>
+  <si>
+    <t>237,192</t>
+  </si>
+  <si>
+    <t>84,317</t>
+  </si>
+  <si>
+    <t>21,297</t>
+  </si>
+  <si>
+    <t>636,565</t>
+  </si>
+  <si>
+    <t>273,293</t>
+  </si>
+  <si>
+    <t>184,269</t>
+  </si>
+  <si>
+    <t>25,785</t>
+  </si>
+  <si>
+    <t>11,525</t>
+  </si>
+  <si>
+    <t>2,242,298</t>
+  </si>
+  <si>
+    <t>104,150</t>
+  </si>
+  <si>
+    <t>103,400</t>
+  </si>
+  <si>
+    <t>14,286</t>
+  </si>
+  <si>
+    <t>221,836</t>
+  </si>
+  <si>
+    <t>370,000</t>
+  </si>
+  <si>
+    <t>359,242</t>
+  </si>
+  <si>
+    <t>69,459</t>
+  </si>
+  <si>
+    <t>1,020,537</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Diluted</t>
+  </si>
+  <si>
+    <t>Consolidated Statements of Income</t>
+  </si>
+  <si>
+    <t>(in thousands, except per share data)</t>
+  </si>
+  <si>
+    <t>1,393,921</t>
+  </si>
+  <si>
+    <t>970,345</t>
+  </si>
+  <si>
+    <t>423,576</t>
+  </si>
+  <si>
+    <t>139,857</t>
+  </si>
+  <si>
+    <t>121,207</t>
+  </si>
+  <si>
+    <t>60,314</t>
+  </si>
+  <si>
+    <t>44,528</t>
+  </si>
+  <si>
+    <t>365,906</t>
+  </si>
+  <si>
+    <t>57,670</t>
+  </si>
+  <si>
+    <t>54,942</t>
+  </si>
+  <si>
+    <t>1,716</t>
+  </si>
+  <si>
+    <t>1,012</t>
+  </si>
+  <si>
+    <t>(5,500)</t>
+  </si>
+  <si>
+    <t>6,512</t>
+  </si>
+  <si>
+    <t>6,550</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>41,681</t>
+  </si>
+  <si>
+    <t>41,717</t>
+  </si>
+  <si>
+    <t>1,464,178</t>
+  </si>
+  <si>
+    <t>999,366</t>
+  </si>
+  <si>
+    <t>464,812</t>
+  </si>
+  <si>
+    <t>124,582</t>
+  </si>
+  <si>
+    <t>100,451</t>
+  </si>
+  <si>
+    <t>53,179</t>
+  </si>
+  <si>
+    <t>26,509</t>
+  </si>
+  <si>
+    <t>304,721</t>
+  </si>
+  <si>
+    <t>160,091</t>
+  </si>
+  <si>
+    <t>19,320</t>
+  </si>
+  <si>
+    <t>2,108</t>
+  </si>
+  <si>
+    <t>138,663</t>
+  </si>
+  <si>
+    <t>17,817</t>
+  </si>
+  <si>
+    <t>120,846</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>42,305</t>
+  </si>
+  <si>
+    <t>42,432</t>
+  </si>
+  <si>
+    <t>1,602,491</t>
+  </si>
+  <si>
+    <t>1,071,148</t>
+  </si>
+  <si>
+    <t>531,343</t>
+  </si>
+  <si>
+    <t>116,103</t>
+  </si>
+  <si>
+    <t>90,801</t>
+  </si>
+  <si>
+    <t>56,205</t>
+  </si>
+  <si>
+    <t>21,537</t>
+  </si>
+  <si>
+    <t>284,646</t>
+  </si>
+  <si>
+    <t>246,697</t>
+  </si>
+  <si>
+    <t>8,939</t>
+  </si>
+  <si>
+    <t>3,994</t>
+  </si>
+  <si>
+    <t>233,764</t>
+  </si>
+  <si>
+    <t>28,486</t>
+  </si>
+  <si>
+    <t>205,278</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>4.84</t>
+  </si>
+  <si>
+    <t>42,232</t>
+  </si>
+  <si>
+    <t>42,384</t>
+  </si>
+  <si>
+    <t>(in thousands)</t>
+  </si>
+  <si>
+    <t>Other comprehensive income (loss)</t>
+  </si>
+  <si>
+    <t>Interest rate swap</t>
+  </si>
+  <si>
+    <t>Change in net unrealized gain</t>
+  </si>
+  <si>
+    <t>Reclassification of net gain on interest rate swaps to net earnings</t>
+  </si>
+  <si>
+    <t>Tax effects: 稅務影響</t>
+  </si>
+  <si>
+    <t>Net change, net of tax effects: 稅後淨變動</t>
+  </si>
+  <si>
+    <t>Foreign currency translation adjustments: 外幣換算差額調整</t>
+  </si>
+  <si>
+    <t>Other comprehensive (loss) income: 其他綜合（損失）收益</t>
+  </si>
+  <si>
+    <t>Comprehensive (loss) income</t>
+  </si>
+  <si>
+    <t>Less: comprehensive loss attributable to non-controlling interest: 減：歸屬於非控制性權益之綜合損失（少數股東）</t>
+  </si>
+  <si>
+    <t>Comprehensive (loss) income attributable to Fox stockholders</t>
+  </si>
+  <si>
+    <t>稅務影響</t>
+  </si>
+  <si>
+    <t>稅後淨變動</t>
+  </si>
+  <si>
+    <t>外幣換算差額調整</t>
+  </si>
+  <si>
+    <t>其他綜合（損失）收益</t>
+  </si>
+  <si>
+    <t>減：歸屬於非控制性權益之綜合損失（少數股東）</t>
+  </si>
+  <si>
+    <t>Consolidated Statements of Comprehensive Income</t>
+  </si>
+  <si>
+    <t>6,418</t>
+  </si>
+  <si>
+    <t>(8,460)</t>
+  </si>
+  <si>
+    <t>(466)</t>
+  </si>
+  <si>
+    <t>(2,508)</t>
+  </si>
+  <si>
+    <t>(6,309)</t>
+  </si>
+  <si>
+    <t>(8,817)</t>
+  </si>
+  <si>
+    <t>(2,305)</t>
+  </si>
+  <si>
+    <t>(2,267)</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>(6,775)</t>
+  </si>
+  <si>
+    <t>(1,303)</t>
+  </si>
+  <si>
+    <t>(7,248)</t>
+  </si>
+  <si>
+    <t>1,507</t>
+  </si>
+  <si>
+    <t>(5,741)</t>
+  </si>
+  <si>
+    <t>115,105</t>
+  </si>
+  <si>
+    <t>13,775</t>
+  </si>
+  <si>
+    <t>(3,177)</t>
+  </si>
+  <si>
+    <t>4,226</t>
+  </si>
+  <si>
+    <t>14,824</t>
+  </si>
+  <si>
+    <t>(4,918)</t>
+  </si>
+  <si>
+    <t>9,906</t>
+  </si>
+  <si>
+    <t>215,184</t>
+  </si>
+  <si>
+    <t>籌資活動</t>
+  </si>
+  <si>
+    <t>購買並註銷普通股</t>
+  </si>
+  <si>
+    <t>(4,231)</t>
+  </si>
+  <si>
+    <t>16,351</t>
+  </si>
+  <si>
+    <t>(6,195)</t>
+  </si>
+  <si>
+    <t>16,465</t>
+  </si>
+  <si>
+    <t>9,606</t>
+  </si>
+  <si>
+    <t>(25,000)</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>Write off of unamortized loan origination fees</t>
+  </si>
+  <si>
+    <t>Proceeds from (cash paid for) interest rate swap settlements</t>
+  </si>
+  <si>
+    <t>Loss (gain) on disposal of property and equipment</t>
+  </si>
+  <si>
+    <t>Acquisition of businesses, net of cash acquired</t>
+  </si>
+  <si>
+    <t>Acquisition foreign exchange hedge settlement</t>
+  </si>
+  <si>
+    <t>Acquisition of other assets</t>
+  </si>
+  <si>
+    <t>Proceeds from sale of property and equipment</t>
+  </si>
+  <si>
+    <t>Proceeds from line of credit, net of origination fees</t>
+  </si>
+  <si>
+    <t>Proceeds from issuance of debt</t>
+  </si>
+  <si>
+    <t>Installment on purchase of non-controlling interest</t>
+  </si>
+  <si>
+    <t>Deferred debt issuance/modification costs</t>
+  </si>
+  <si>
+    <t>Proceeds from termination of swap agreement</t>
+  </si>
+  <si>
+    <t>CASH AND CASH EQUIVALENTS—Beginning of year</t>
+  </si>
+  <si>
+    <t>CASH AND CASH EQUIVALENTS—End of year</t>
+  </si>
+  <si>
+    <t>取得存貨增值攤銷</t>
+  </si>
+  <si>
+    <t>借款費用攤銷</t>
+  </si>
+  <si>
+    <t>前期交換結算遞延收益攤銷</t>
+  </si>
+  <si>
+    <t>遞延所得稅</t>
+  </si>
+  <si>
+    <t>營業資產及負債變動（扣除併購影響）</t>
+  </si>
+  <si>
+    <t>應收帳款變動</t>
+  </si>
+  <si>
+    <t>預付費用及其他資產變動</t>
+  </si>
+  <si>
+    <t>應計費用及其他負債變動</t>
+  </si>
+  <si>
+    <t>投資活動：</t>
+  </si>
+  <si>
+    <t>購置不動產、廠房及設備</t>
+  </si>
+  <si>
+    <t>籌資活動：</t>
+  </si>
+  <si>
+    <t>償還週轉信貸款</t>
+  </si>
+  <si>
+    <t>償還分期貸款</t>
+  </si>
+  <si>
+    <t>員工股票酬勞計畫購回（淨額）</t>
+  </si>
+  <si>
+    <t>匯率變動對現金及約當現金之影響</t>
+  </si>
+  <si>
+    <t>現金及約當現金增加（減少）</t>
+  </si>
+  <si>
+    <t>Consolidated Statements of Cash Flows</t>
+  </si>
+  <si>
+    <t>83,566</t>
+  </si>
+  <si>
+    <t>4,485</t>
+  </si>
+  <si>
+    <t>3,748</t>
+  </si>
+  <si>
+    <t>(4,334)</t>
+  </si>
+  <si>
+    <t>4,026</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>(23,310)</t>
+  </si>
+  <si>
+    <t>10,372</t>
+  </si>
+  <si>
+    <t>(26,503)</t>
+  </si>
+  <si>
+    <t>(11,168)</t>
+  </si>
+  <si>
+    <t>48,463</t>
+  </si>
+  <si>
+    <t>23,234</t>
+  </si>
+  <si>
+    <t>(2,837)</t>
+  </si>
+  <si>
+    <t>131,832</t>
+  </si>
+  <si>
+    <t>(25,785)</t>
+  </si>
+  <si>
+    <t>(1,118)</t>
+  </si>
+  <si>
+    <t>(5,344)</t>
+  </si>
+  <si>
+    <t>(44,040)</t>
+  </si>
+  <si>
+    <t>(76,287)</t>
+  </si>
+  <si>
+    <t>189,000</t>
+  </si>
+  <si>
+    <t>(406,000)</t>
+  </si>
+  <si>
+    <t>200,000</t>
+  </si>
+  <si>
+    <t>(19,286)</t>
+  </si>
+  <si>
+    <t>(2,608)</t>
+  </si>
+  <si>
+    <t>(3,434)</t>
+  </si>
+  <si>
+    <t>(67,328)</t>
+  </si>
+  <si>
+    <t>(185)</t>
+  </si>
+  <si>
+    <t>(11,968)</t>
+  </si>
+  <si>
+    <t>58,603</t>
+  </si>
+  <si>
+    <t>13,008</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>(4,252)</t>
+  </si>
+  <si>
+    <t>2,522</t>
+  </si>
+  <si>
+    <t>1,492</t>
+  </si>
+  <si>
+    <t>(7,867)</t>
+  </si>
+  <si>
+    <t>64,527</t>
+  </si>
+  <si>
+    <t>31,613</t>
+  </si>
+  <si>
+    <t>(19,094)</t>
+  </si>
+  <si>
+    <t>(40,702)</t>
+  </si>
+  <si>
+    <t>(44,029)</t>
+  </si>
+  <si>
+    <t>(21,478)</t>
+  </si>
+  <si>
+    <t>178,743</t>
+  </si>
+  <si>
+    <t>(701,112)</t>
+  </si>
+  <si>
+    <t>(2,432)</t>
+  </si>
+  <si>
+    <t>(46,852)</t>
+  </si>
+  <si>
+    <t>(750,396)</t>
+  </si>
+  <si>
+    <t>400,000</t>
+  </si>
+  <si>
+    <t>(230,000)</t>
+  </si>
+  <si>
+    <t>393,528</t>
+  </si>
+  <si>
+    <t>(20,000)</t>
+  </si>
+  <si>
+    <t>(3,354)</t>
+  </si>
+  <si>
+    <t>508,979</t>
+  </si>
+  <si>
+    <t>1,066</t>
+  </si>
+  <si>
+    <t>(61,608)</t>
+  </si>
+  <si>
+    <t>145,250</t>
+  </si>
+  <si>
+    <t>49,242</t>
+  </si>
+  <si>
+    <t>1,086</t>
+  </si>
+  <si>
+    <t>1,927</t>
+  </si>
+  <si>
+    <t>(471)</t>
+  </si>
+  <si>
+    <t>(1,740)</t>
+  </si>
+  <si>
+    <t>(18,445)</t>
+  </si>
+  <si>
+    <t>(63,957)</t>
+  </si>
+  <si>
+    <t>(87,460)</t>
+  </si>
+  <si>
+    <t>8,717</t>
+  </si>
+  <si>
+    <t>18,603</t>
+  </si>
+  <si>
+    <t>40,493</t>
+  </si>
+  <si>
+    <t>11,724</t>
+  </si>
+  <si>
+    <t>187,094</t>
+  </si>
+  <si>
+    <t>(714)</t>
+  </si>
+  <si>
+    <t>(3,500)</t>
+  </si>
+  <si>
+    <t>(43,701)</t>
+  </si>
+  <si>
+    <t>3,180</t>
+  </si>
+  <si>
+    <t>(44,735)</t>
+  </si>
+  <si>
+    <t>602,356</t>
+  </si>
+  <si>
+    <t>(404,336)</t>
+  </si>
+  <si>
+    <t>(382,500)</t>
+  </si>
+  <si>
+    <t>(2,700)</t>
+  </si>
+  <si>
+    <t>12,270</t>
+  </si>
+  <si>
+    <t>(179,141)</t>
+  </si>
+  <si>
+    <t>2,346</t>
+  </si>
+  <si>
+    <t>(34,436)</t>
+  </si>
+  <si>
+    <t>179,686</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTAL CASH FLOW INFORMATION:</t>
+  </si>
+  <si>
+    <t>Cash paid during the period for:</t>
+  </si>
+  <si>
+    <t>Income tax payment</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Amounts included in the measurement of lease liabilities</t>
+  </si>
+  <si>
+    <t>Non-cash operating activities:</t>
+  </si>
+  <si>
+    <t>Right-of-use assets obtained in exchange for lease obligations</t>
+  </si>
+  <si>
+    <t>Non-cash investing and financing activities:</t>
+  </si>
+  <si>
+    <t>Capital expenditures included in accounts payable</t>
+  </si>
+  <si>
+    <t>29,159</t>
+  </si>
+  <si>
+    <t>57,004</t>
+  </si>
+  <si>
+    <t>18,844</t>
+  </si>
+  <si>
+    <t>39,541</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>44,655</t>
+  </si>
+  <si>
+    <t>21,147</t>
+  </si>
+  <si>
+    <t>14,009</t>
+  </si>
+  <si>
+    <t>54,949</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>37,493</t>
+  </si>
+  <si>
+    <t>9,922</t>
+  </si>
+  <si>
+    <t>10,499</t>
+  </si>
+  <si>
+    <t>21,167</t>
+  </si>
+  <si>
+    <t>2,049</t>
+  </si>
+  <si>
     <t>Other expense, net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Income before income taxes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(Benefit) provision for income taxes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Net income</t>
-  </si>
-  <si>
-    <t>銷貨收入</t>
-  </si>
-  <si>
-    <t>銷貨成本</t>
-  </si>
-  <si>
-    <t>毛利</t>
-  </si>
-  <si>
-    <t>營業費用：</t>
-  </si>
-  <si>
-    <t>一般及管理費用</t>
-  </si>
-  <si>
-    <t>已購無形資產攤銷</t>
-  </si>
-  <si>
-    <t>營業費用合計</t>
-  </si>
-  <si>
-    <t>營業收入</t>
-  </si>
-  <si>
-    <t>利息費用</t>
-  </si>
-  <si>
-    <t>減：非控制權益之淨損</t>
-  </si>
-  <si>
-    <t>January 3, 2025</t>
-  </si>
-  <si>
-    <t>For the fiscal years ended</t>
-  </si>
-  <si>
-    <t>December 29, 2023</t>
-  </si>
-  <si>
-    <t>December 30, 2022</t>
-  </si>
-  <si>
-    <t>營業活動</t>
-  </si>
-  <si>
-    <t>所得稅變動</t>
-  </si>
-  <si>
-    <t>投資活動</t>
-  </si>
-  <si>
-    <t>Net cash provided by operating activities</t>
-  </si>
-  <si>
-    <t>Net cash (used in) provided by financing activities</t>
-  </si>
-  <si>
-    <t>投資活動現金流出淨額</t>
-  </si>
-  <si>
-    <t>無形資產</t>
-  </si>
-  <si>
-    <t>商譽</t>
-  </si>
-  <si>
-    <t>股票基礎報酬費用</t>
-  </si>
-  <si>
-    <t>流動負債</t>
-  </si>
-  <si>
-    <t>總計</t>
-  </si>
-  <si>
-    <t>PART IV</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>FOX FACTORY HOLDING CORP.</t>
-  </si>
-  <si>
-    <t>流動資產</t>
-  </si>
-  <si>
-    <t>非流動資產</t>
-  </si>
-  <si>
-    <t>其他資產</t>
-  </si>
-  <si>
-    <t>非流動負債</t>
-  </si>
-  <si>
-    <t>應收帳款變動 (net of allowances of $1,848 and $1,158 at January 3, 2025 and December 29, 2023,</t>
-  </si>
-  <si>
-    <t>respectively)</t>
-  </si>
-  <si>
-    <t>Liabilities and stockholders’ equity</t>
-  </si>
-  <si>
-    <t>Commitments and contingent liabilities (Refer to Note 12. Commitments and Contingent Liabilities)</t>
-  </si>
-  <si>
-    <t>資產</t>
-  </si>
-  <si>
-    <t>流動資產：</t>
-  </si>
-  <si>
-    <t>現金及約當現金</t>
-  </si>
-  <si>
-    <t>存貨變動</t>
-  </si>
-  <si>
-    <t>預付費用及其他流動資產</t>
-  </si>
-  <si>
-    <t>流動資產合計</t>
-  </si>
-  <si>
-    <t>不動產、廠房及設備（淨額）</t>
-  </si>
-  <si>
-    <t>租賃使用權資產</t>
-  </si>
-  <si>
-    <t>遞延所得稅資產（淨額）</t>
-  </si>
-  <si>
-    <t>商標及品牌權（淨額）</t>
-  </si>
-  <si>
-    <t>客戶及經銷合作關係（淨額）</t>
-  </si>
-  <si>
-    <t>核心技術（淨額）</t>
-  </si>
-  <si>
-    <t>資產總額</t>
-  </si>
-  <si>
-    <t>流動負債：</t>
-  </si>
-  <si>
-    <t>應付帳款變動</t>
-  </si>
-  <si>
-    <t>應計費用</t>
-  </si>
-  <si>
-    <t>長期負債—一年內到期部分</t>
-  </si>
-  <si>
-    <t>流動負債合計</t>
-  </si>
-  <si>
-    <t>週轉信貸</t>
-  </si>
-  <si>
-    <t>分期貸款（扣除一年內到期部分）</t>
-  </si>
-  <si>
-    <t>其他負債</t>
-  </si>
-  <si>
-    <t>負債總額</t>
-  </si>
-  <si>
-    <t>非控制權益（少數股東權益）</t>
-  </si>
-  <si>
-    <t>股東權益</t>
-  </si>
-  <si>
-    <t>January 03, 2025</t>
-  </si>
-  <si>
-    <t>71,674</t>
-  </si>
-  <si>
-    <t>165,827</t>
-  </si>
-  <si>
-    <t>404,736</t>
-  </si>
-  <si>
-    <t>85,443</t>
-  </si>
-  <si>
-    <t>727,680</t>
-  </si>
-  <si>
-    <t>246,393</t>
-  </si>
-  <si>
-    <t>104,019</t>
-  </si>
-  <si>
-    <t>44,364</t>
-  </si>
-  <si>
-    <t>639,505</t>
-  </si>
-  <si>
-    <t>264,126</t>
-  </si>
-  <si>
-    <t>161,585</t>
-  </si>
-  <si>
-    <t>23,154</t>
-  </si>
-  <si>
-    <t>21,484</t>
-  </si>
-  <si>
-    <t>2,232,310</t>
-  </si>
-  <si>
-    <t>144,067</t>
-  </si>
-  <si>
-    <t>91,427</t>
-  </si>
-  <si>
-    <t>24,286</t>
-  </si>
-  <si>
-    <t>259,780</t>
-  </si>
-  <si>
-    <t>153,000</t>
-  </si>
-  <si>
-    <t>527,775</t>
-  </si>
-  <si>
-    <t>90,611</t>
-  </si>
-  <si>
-    <t>1,031,166</t>
-  </si>
-  <si>
-    <t>(38)</t>
-  </si>
-  <si>
-    <t>83,642</t>
-  </si>
-  <si>
-    <t>171,060</t>
-  </si>
-  <si>
-    <t>371,841</t>
-  </si>
-  <si>
-    <t>141,512</t>
-  </si>
-  <si>
-    <t>768,055</t>
-  </si>
-  <si>
-    <t>237,192</t>
-  </si>
-  <si>
-    <t>84,317</t>
-  </si>
-  <si>
-    <t>21,297</t>
-  </si>
-  <si>
-    <t>636,565</t>
-  </si>
-  <si>
-    <t>273,293</t>
-  </si>
-  <si>
-    <t>184,269</t>
-  </si>
-  <si>
-    <t>25,785</t>
-  </si>
-  <si>
-    <t>11,525</t>
-  </si>
-  <si>
-    <t>2,242,298</t>
-  </si>
-  <si>
-    <t>104,150</t>
-  </si>
-  <si>
-    <t>103,400</t>
-  </si>
-  <si>
-    <t>14,286</t>
-  </si>
-  <si>
-    <t>221,836</t>
-  </si>
-  <si>
-    <t>370,000</t>
-  </si>
-  <si>
-    <t>359,242</t>
-  </si>
-  <si>
-    <t>69,459</t>
-  </si>
-  <si>
-    <t>1,020,537</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Net income attributable to Fox stockholders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Earnings per share:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Diluted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Weighted-average shares used to compute earnings per share:</t>
-  </si>
-  <si>
-    <t>Consolidated Statements of Income</t>
-  </si>
-  <si>
-    <t>(in thousands, except per share data)</t>
-  </si>
-  <si>
-    <t>1,393,921</t>
-  </si>
-  <si>
-    <t>970,345</t>
-  </si>
-  <si>
-    <t>423,576</t>
-  </si>
-  <si>
-    <t>139,857</t>
-  </si>
-  <si>
-    <t>121,207</t>
-  </si>
-  <si>
-    <t>60,314</t>
-  </si>
-  <si>
-    <t>44,528</t>
-  </si>
-  <si>
-    <t>365,906</t>
-  </si>
-  <si>
-    <t>57,670</t>
-  </si>
-  <si>
-    <t>54,942</t>
-  </si>
-  <si>
-    <t>1,716</t>
-  </si>
-  <si>
-    <t>1,012</t>
-  </si>
-  <si>
-    <t>(5,500)</t>
-  </si>
-  <si>
-    <t>6,512</t>
-  </si>
-  <si>
-    <t>6,550</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>41,681</t>
-  </si>
-  <si>
-    <t>41,717</t>
-  </si>
-  <si>
-    <t>1,464,178</t>
-  </si>
-  <si>
-    <t>999,366</t>
-  </si>
-  <si>
-    <t>464,812</t>
-  </si>
-  <si>
-    <t>124,582</t>
-  </si>
-  <si>
-    <t>100,451</t>
-  </si>
-  <si>
-    <t>53,179</t>
-  </si>
-  <si>
-    <t>26,509</t>
-  </si>
-  <si>
-    <t>304,721</t>
-  </si>
-  <si>
-    <t>160,091</t>
-  </si>
-  <si>
-    <t>19,320</t>
-  </si>
-  <si>
-    <t>2,108</t>
-  </si>
-  <si>
-    <t>138,663</t>
-  </si>
-  <si>
-    <t>17,817</t>
-  </si>
-  <si>
-    <t>120,846</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>42,305</t>
-  </si>
-  <si>
-    <t>42,432</t>
-  </si>
-  <si>
-    <t>1,602,491</t>
-  </si>
-  <si>
-    <t>1,071,148</t>
-  </si>
-  <si>
-    <t>531,343</t>
-  </si>
-  <si>
-    <t>116,103</t>
-  </si>
-  <si>
-    <t>90,801</t>
-  </si>
-  <si>
-    <t>56,205</t>
-  </si>
-  <si>
-    <t>21,537</t>
-  </si>
-  <si>
-    <t>284,646</t>
-  </si>
-  <si>
-    <t>246,697</t>
-  </si>
-  <si>
-    <t>8,939</t>
-  </si>
-  <si>
-    <t>3,994</t>
-  </si>
-  <si>
-    <t>233,764</t>
-  </si>
-  <si>
-    <t>28,486</t>
-  </si>
-  <si>
-    <t>205,278</t>
-  </si>
-  <si>
-    <t>4.86</t>
-  </si>
-  <si>
-    <t>4.84</t>
-  </si>
-  <si>
-    <t>42,232</t>
-  </si>
-  <si>
-    <t>42,384</t>
-  </si>
-  <si>
-    <t>(in thousands)</t>
-  </si>
-  <si>
-    <t>Other comprehensive income (loss)</t>
-  </si>
-  <si>
-    <t>Interest rate swap</t>
-  </si>
-  <si>
-    <t>Change in net unrealized gain</t>
-  </si>
-  <si>
-    <t>Reclassification of net gain on interest rate swaps to net earnings</t>
-  </si>
-  <si>
-    <t>Tax effects: 稅務影響</t>
-  </si>
-  <si>
-    <t>Net change, net of tax effects: 稅後淨變動</t>
-  </si>
-  <si>
-    <t>Foreign currency translation adjustments: 外幣換算差額調整</t>
-  </si>
-  <si>
-    <t>Other comprehensive (loss) income: 其他綜合（損失）收益</t>
-  </si>
-  <si>
-    <t>Comprehensive (loss) income</t>
-  </si>
-  <si>
-    <t>Less: comprehensive loss attributable to non-controlling interest: 減：歸屬於非控制性權益之綜合損失（少數股東）</t>
-  </si>
-  <si>
-    <t>Comprehensive (loss) income attributable to Fox stockholders</t>
-  </si>
-  <si>
-    <t>稅務影響</t>
-  </si>
-  <si>
-    <t>稅後淨變動</t>
-  </si>
-  <si>
-    <t>外幣換算差額調整</t>
-  </si>
-  <si>
-    <t>其他綜合（損失）收益</t>
-  </si>
-  <si>
-    <t>減：歸屬於非控制性權益之綜合損失（少數股東）</t>
-  </si>
-  <si>
-    <t>Consolidated Statements of Comprehensive Income</t>
-  </si>
-  <si>
-    <t>6,418</t>
-  </si>
-  <si>
-    <t>(8,460)</t>
-  </si>
-  <si>
-    <t>(466)</t>
-  </si>
-  <si>
-    <t>(2,508)</t>
-  </si>
-  <si>
-    <t>(6,309)</t>
-  </si>
-  <si>
-    <t>(8,817)</t>
-  </si>
-  <si>
-    <t>(2,305)</t>
-  </si>
-  <si>
-    <t>(2,267)</t>
-  </si>
-  <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>(6,775)</t>
-  </si>
-  <si>
-    <t>(1,303)</t>
-  </si>
-  <si>
-    <t>(7,248)</t>
-  </si>
-  <si>
-    <t>1,507</t>
-  </si>
-  <si>
-    <t>(5,741)</t>
-  </si>
-  <si>
-    <t>115,105</t>
-  </si>
-  <si>
-    <t>13,775</t>
-  </si>
-  <si>
-    <t>(3,177)</t>
-  </si>
-  <si>
-    <t>4,226</t>
-  </si>
-  <si>
-    <t>14,824</t>
-  </si>
-  <si>
-    <t>(4,918)</t>
-  </si>
-  <si>
-    <t>9,906</t>
-  </si>
-  <si>
-    <t>215,184</t>
-  </si>
-  <si>
-    <t>籌資活動</t>
-  </si>
-  <si>
-    <t>購買並註銷普通股</t>
-  </si>
-  <si>
-    <t>(4,231)</t>
-  </si>
-  <si>
-    <t>16,351</t>
-  </si>
-  <si>
-    <t>(6,195)</t>
-  </si>
-  <si>
-    <t>16,465</t>
-  </si>
-  <si>
-    <t>9,606</t>
-  </si>
-  <si>
-    <t>(25,000)</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>Write off of unamortized loan origination fees</t>
-  </si>
-  <si>
-    <t>Proceeds from (cash paid for) interest rate swap settlements</t>
-  </si>
-  <si>
-    <t>Loss (gain) on disposal of property and equipment</t>
-  </si>
-  <si>
-    <t>Acquisition of businesses, net of cash acquired</t>
-  </si>
-  <si>
-    <t>Acquisition foreign exchange hedge settlement</t>
-  </si>
-  <si>
-    <t>Acquisition of other assets</t>
-  </si>
-  <si>
-    <t>Proceeds from sale of property and equipment</t>
-  </si>
-  <si>
-    <t>Proceeds from line of credit, net of origination fees</t>
-  </si>
-  <si>
-    <t>Proceeds from issuance of debt</t>
-  </si>
-  <si>
-    <t>Installment on purchase of non-controlling interest</t>
-  </si>
-  <si>
-    <t>Deferred debt issuance/modification costs</t>
-  </si>
-  <si>
-    <t>Proceeds from termination of swap agreement</t>
-  </si>
-  <si>
-    <t>CASH AND CASH EQUIVALENTS—Beginning of year</t>
-  </si>
-  <si>
-    <t>CASH AND CASH EQUIVALENTS—End of year</t>
-  </si>
-  <si>
-    <t>取得存貨增值攤銷</t>
-  </si>
-  <si>
-    <t>借款費用攤銷</t>
-  </si>
-  <si>
-    <t>前期交換結算遞延收益攤銷</t>
-  </si>
-  <si>
-    <t>遞延所得稅</t>
-  </si>
-  <si>
-    <t>營業資產及負債變動（扣除併購影響）</t>
-  </si>
-  <si>
-    <t>應收帳款變動</t>
-  </si>
-  <si>
-    <t>預付費用及其他資產變動</t>
-  </si>
-  <si>
-    <t>應計費用及其他負債變動</t>
-  </si>
-  <si>
-    <t>投資活動：</t>
-  </si>
-  <si>
-    <t>購置不動產、廠房及設備</t>
-  </si>
-  <si>
-    <t>籌資活動：</t>
-  </si>
-  <si>
-    <t>償還週轉信貸款</t>
-  </si>
-  <si>
-    <t>償還分期貸款</t>
-  </si>
-  <si>
-    <t>員工股票酬勞計畫購回（淨額）</t>
-  </si>
-  <si>
-    <t>匯率變動對現金及約當現金之影響</t>
-  </si>
-  <si>
-    <t>現金及約當現金增加（減少）</t>
-  </si>
-  <si>
-    <t>Consolidated Statements of Cash Flows</t>
-  </si>
-  <si>
-    <t>83,566</t>
-  </si>
-  <si>
-    <t>4,485</t>
-  </si>
-  <si>
-    <t>3,748</t>
-  </si>
-  <si>
-    <t>(4,334)</t>
-  </si>
-  <si>
-    <t>4,026</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>(23,310)</t>
-  </si>
-  <si>
-    <t>10,372</t>
-  </si>
-  <si>
-    <t>(26,503)</t>
-  </si>
-  <si>
-    <t>(11,168)</t>
-  </si>
-  <si>
-    <t>48,463</t>
-  </si>
-  <si>
-    <t>23,234</t>
-  </si>
-  <si>
-    <t>(2,837)</t>
-  </si>
-  <si>
-    <t>131,832</t>
-  </si>
-  <si>
-    <t>(25,785)</t>
-  </si>
-  <si>
-    <t>(1,118)</t>
-  </si>
-  <si>
-    <t>(5,344)</t>
-  </si>
-  <si>
-    <t>(44,040)</t>
-  </si>
-  <si>
-    <t>(76,287)</t>
-  </si>
-  <si>
-    <t>189,000</t>
-  </si>
-  <si>
-    <t>(406,000)</t>
-  </si>
-  <si>
-    <t>200,000</t>
-  </si>
-  <si>
-    <t>(19,286)</t>
-  </si>
-  <si>
-    <t>(2,608)</t>
-  </si>
-  <si>
-    <t>(3,434)</t>
-  </si>
-  <si>
-    <t>(67,328)</t>
-  </si>
-  <si>
-    <t>(185)</t>
-  </si>
-  <si>
-    <t>(11,968)</t>
-  </si>
-  <si>
-    <t>58,603</t>
-  </si>
-  <si>
-    <t>13,008</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>(4,252)</t>
-  </si>
-  <si>
-    <t>2,522</t>
-  </si>
-  <si>
-    <t>1,492</t>
-  </si>
-  <si>
-    <t>(7,867)</t>
-  </si>
-  <si>
-    <t>64,527</t>
-  </si>
-  <si>
-    <t>31,613</t>
-  </si>
-  <si>
-    <t>(19,094)</t>
-  </si>
-  <si>
-    <t>(40,702)</t>
-  </si>
-  <si>
-    <t>(44,029)</t>
-  </si>
-  <si>
-    <t>(21,478)</t>
-  </si>
-  <si>
-    <t>178,743</t>
-  </si>
-  <si>
-    <t>(701,112)</t>
-  </si>
-  <si>
-    <t>(2,432)</t>
-  </si>
-  <si>
-    <t>(46,852)</t>
-  </si>
-  <si>
-    <t>(750,396)</t>
-  </si>
-  <si>
-    <t>400,000</t>
-  </si>
-  <si>
-    <t>(230,000)</t>
-  </si>
-  <si>
-    <t>393,528</t>
-  </si>
-  <si>
-    <t>(20,000)</t>
-  </si>
-  <si>
-    <t>(3,354)</t>
-  </si>
-  <si>
-    <t>508,979</t>
-  </si>
-  <si>
-    <t>1,066</t>
-  </si>
-  <si>
-    <t>(61,608)</t>
-  </si>
-  <si>
-    <t>145,250</t>
-  </si>
-  <si>
-    <t>49,242</t>
-  </si>
-  <si>
-    <t>1,086</t>
-  </si>
-  <si>
-    <t>1,927</t>
-  </si>
-  <si>
-    <t>(471)</t>
-  </si>
-  <si>
-    <t>(1,740)</t>
-  </si>
-  <si>
-    <t>(18,445)</t>
-  </si>
-  <si>
-    <t>(63,957)</t>
-  </si>
-  <si>
-    <t>(87,460)</t>
-  </si>
-  <si>
-    <t>8,717</t>
-  </si>
-  <si>
-    <t>18,603</t>
-  </si>
-  <si>
-    <t>40,493</t>
-  </si>
-  <si>
-    <t>11,724</t>
-  </si>
-  <si>
-    <t>187,094</t>
-  </si>
-  <si>
-    <t>(714)</t>
-  </si>
-  <si>
-    <t>(3,500)</t>
-  </si>
-  <si>
-    <t>(43,701)</t>
-  </si>
-  <si>
-    <t>3,180</t>
-  </si>
-  <si>
-    <t>(44,735)</t>
-  </si>
-  <si>
-    <t>602,356</t>
-  </si>
-  <si>
-    <t>(404,336)</t>
-  </si>
-  <si>
-    <t>(382,500)</t>
-  </si>
-  <si>
-    <t>(2,700)</t>
-  </si>
-  <si>
-    <t>12,270</t>
-  </si>
-  <si>
-    <t>(179,141)</t>
-  </si>
-  <si>
-    <t>2,346</t>
-  </si>
-  <si>
-    <t>(34,436)</t>
-  </si>
-  <si>
-    <t>179,686</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTAL CASH FLOW INFORMATION:</t>
-  </si>
-  <si>
-    <t>Cash paid during the period for:</t>
-  </si>
-  <si>
-    <t>Income tax payment</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Amounts included in the measurement of lease liabilities</t>
-  </si>
-  <si>
-    <t>Non-cash operating activities:</t>
-  </si>
-  <si>
-    <t>Right-of-use assets obtained in exchange for lease obligations</t>
-  </si>
-  <si>
-    <t>Non-cash investing and financing activities:</t>
-  </si>
-  <si>
-    <t>Capital expenditures included in accounts payable</t>
-  </si>
-  <si>
-    <t>29,159</t>
-  </si>
-  <si>
-    <t>57,004</t>
-  </si>
-  <si>
-    <t>18,844</t>
-  </si>
-  <si>
-    <t>39,541</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>44,655</t>
-  </si>
-  <si>
-    <t>21,147</t>
-  </si>
-  <si>
-    <t>14,009</t>
-  </si>
-  <si>
-    <t>54,949</t>
-  </si>
-  <si>
-    <t>977</t>
-  </si>
-  <si>
-    <t>37,493</t>
-  </si>
-  <si>
-    <t>9,922</t>
-  </si>
-  <si>
-    <t>10,499</t>
-  </si>
-  <si>
-    <t>21,167</t>
-  </si>
-  <si>
-    <t>2,049</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1615,7 +1633,7 @@
   <sheetPr codeName="工作表6"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1646,29 +1664,29 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1679,30 +1697,30 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1716,223 +1734,223 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -1951,64 +1969,64 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2016,64 +2034,64 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,16 +2099,16 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2098,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -2109,10 +2127,10 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
         <v>42</v>
@@ -2123,7 +2141,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -2268,10 +2286,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2279,19 +2297,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2299,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2307,25 +2325,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2333,25 +2351,25 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2359,25 +2377,25 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,25 +2403,25 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
         <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2411,25 +2429,25 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>387</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>393</v>
-      </c>
       <c r="E9" t="s">
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G9" t="s">
         <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2437,16 +2455,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2454,56 +2472,56 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G11" t="s">
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H12" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D13" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H13" t="s">
         <v>42</v>
@@ -2511,19 +2529,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F14" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H14" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2531,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
@@ -2540,24 +2558,24 @@
         <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2565,16 +2583,16 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H17" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2582,143 +2600,143 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H18" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H19" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D21" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H21" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H22" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F23" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H23" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D24" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F24" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H24" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F25" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H25" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D26" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F26" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H26" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2726,24 +2744,24 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F27" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2751,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D29" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F29" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H29" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2768,10 +2786,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -2785,33 +2803,33 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F31" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H31" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D32" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F32" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H32" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2819,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D33" t="s">
         <v>42</v>
@@ -2828,32 +2846,32 @@
         <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
       <c r="D34" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F34" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H34" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2861,33 +2879,33 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D36" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F36" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H36" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D37" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F37" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H37" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2895,13 +2913,13 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F38" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H38" t="s">
         <v>42</v>
@@ -2909,33 +2927,33 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D39" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H39" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B40" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" t="s">
         <v>260</v>
       </c>
-      <c r="D40" t="s">
-        <v>266</v>
-      </c>
       <c r="F40" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H40" t="s">
         <v>42</v>
@@ -2946,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
@@ -2955,24 +2973,24 @@
         <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D42" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F42" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H42" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2980,13 +2998,13 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F43" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
@@ -2997,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
         <v>42</v>
@@ -3006,7 +3024,7 @@
         <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3014,50 +3032,50 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H45" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B46" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D46" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F46" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H46" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B47" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D47" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H47" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3065,16 +3083,16 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H48" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3082,25 +3100,25 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C49" t="s">
         <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G49" t="s">
         <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3114,11 +3132,14 @@
   <sheetPr codeName="工作表77"/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3151,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3159,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3167,7 +3188,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3175,13 +3196,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3189,25 +3210,25 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3215,16 +3236,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3232,16 +3253,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3249,7 +3270,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3257,16 +3278,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3277,13 +3298,13 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3294,13 +3315,13 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3308,16 +3329,16 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3325,16 +3346,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3342,16 +3363,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3359,16 +3380,16 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3376,16 +3397,16 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3393,16 +3414,16 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>400</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3410,16 +3431,16 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>401</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H19" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3427,25 +3448,25 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>402</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s">
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3453,10 +3474,10 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
@@ -3470,25 +3491,25 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>403</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3496,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3504,25 +3525,25 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>405</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3530,25 +3551,25 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>406</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E25" t="s">
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3556,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3564,16 +3585,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H27" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3581,16 +3602,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H28" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3642,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3650,10 +3671,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3661,7 +3682,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3669,13 +3690,13 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3683,28 +3704,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3712,10 +3733,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3723,10 +3744,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3734,19 +3755,19 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3754,19 +3775,19 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3774,19 +3795,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3794,19 +3815,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I12" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3814,19 +3835,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3834,19 +3855,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3854,28 +3875,28 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H15" t="s">
         <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3883,13 +3904,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" t="s">
         <v>229</v>
       </c>
-      <c r="C16" t="s">
-        <v>235</v>
-      </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
         <v>42</v>
@@ -3903,28 +3924,28 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F17" t="s">
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
